--- a/math_model/result2.xlsx
+++ b/math_model/result2.xlsx
@@ -452,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>381.0511776651529</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>381.0511776651529</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>381.0511776651529</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>381.0511776651529</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>381.0511776651529</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>381.0511776651529</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>381.0511776651529</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>417.2605912712219</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>452.9468913454288</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>488.6331914196354</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>524.3194914938421</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>560.0057915680488</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>595.6920916422555</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>631.3783917164623</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>432.6358636380943</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>483.1732442283413</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>533.7106248185885</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>584.2480054088358</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>634.7853859990828</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>685.3227665893298</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>735.8601471795771</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>417.2605912712219</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>452.9468913454288</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>488.6331914196354</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>524.3194914938421</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
         <v>560.0057915680488</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
         <v>595.6920916422555</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>631.3783917164623</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>381.0511776651529</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>381.0511776651529</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
         <v>381.0511776651529</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
         <v>381.051177665153</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>381.051177665153</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>381.051177665153</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>381.051177665153</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>345.8879911228085</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
         <v>310.2016910486019</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
         <v>274.5153909743951</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
         <v>238.8290909001884</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
         <v>203.1427908259817</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>167.456490751775</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>131.7701906775683</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>331.5611024576</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>281.0237218673528</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
         <v>230.4863412771058</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
         <v>179.9489606868586</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
         <v>129.4115800966115</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
         <v>78.87419950636442</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
         <v>28.33681891611728</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>345.8879911228085</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>310.2016910486019</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>274.5153909743951</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>238.8290909001884</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
         <v>203.1427908259817</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>167.4564907517749</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>131.7701906775682</v>

--- a/math_model/result2.xlsx
+++ b/math_model/result2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,30 +489,36 @@
       <c r="H2" t="n">
         <v>381.0511776651529</v>
       </c>
+      <c r="I2" t="n">
+        <v>381.0511776651529</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>381.5742911970153</v>
+      </c>
+      <c r="C3" t="n">
         <v>417.2605912712219</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>452.9468913454288</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>488.6331914196354</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>524.3194914938421</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>560.0057915680488</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>595.6920916422555</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>631.3783917164623</v>
       </c>
     </row>
@@ -518,24 +527,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>382.0984830478471</v>
+      </c>
+      <c r="C4" t="n">
         <v>432.6358636380943</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>483.1732442283413</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>533.7106248185885</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>584.2480054088358</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>634.7853859990828</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>685.3227665893298</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>735.8601471795771</v>
       </c>
     </row>
@@ -544,24 +556,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>381.5742911970153</v>
+      </c>
+      <c r="C5" t="n">
         <v>417.2605912712219</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>452.9468913454288</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>488.6331914196354</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>524.3194914938421</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>560.0057915680488</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>595.6920916422555</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>631.3783917164623</v>
       </c>
     </row>
@@ -579,7 +594,7 @@
         <v>381.0511776651529</v>
       </c>
       <c r="E6" t="n">
-        <v>381.051177665153</v>
+        <v>381.0511776651529</v>
       </c>
       <c r="F6" t="n">
         <v>381.051177665153</v>
@@ -588,6 +603,9 @@
         <v>381.051177665153</v>
       </c>
       <c r="H6" t="n">
+        <v>381.051177665153</v>
+      </c>
+      <c r="I6" t="n">
         <v>381.051177665153</v>
       </c>
     </row>
@@ -596,24 +614,27 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>381.5742911970153</v>
+      </c>
+      <c r="C7" t="n">
         <v>345.8879911228085</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>310.2016910486019</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>274.5153909743951</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>238.8290909001884</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>203.1427908259817</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>167.456490751775</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>131.7701906775683</v>
       </c>
     </row>
@@ -622,24 +643,27 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>382.0984830478471</v>
+      </c>
+      <c r="C8" t="n">
         <v>331.5611024576</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>281.0237218673528</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>230.4863412771058</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>179.9489606868586</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>129.4115800966115</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>78.87419950636442</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>28.33681891611728</v>
       </c>
     </row>
@@ -648,24 +672,27 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>381.5742911970153</v>
+      </c>
+      <c r="C9" t="n">
         <v>345.8879911228085</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>310.2016910486019</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>274.5153909743951</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>238.8290909001884</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>203.1427908259817</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>167.4564907517749</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>131.7701906775682</v>
       </c>
     </row>
